--- a/fe/public/import_template_coa.xlsx
+++ b/fe/public/import_template_coa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U071182\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u066805\ITHC\Code\Budgetin\fe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="coa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>coa_name</t>
   </si>
@@ -45,42 +45,6 @@
     <t>Biaya Pengelola Pendukung Proses</t>
   </si>
   <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t>Gedung</t>
-  </si>
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t>Keperluan Kantor Lainnya</t>
-  </si>
-  <si>
-    <t>Keperluan Komputer</t>
-  </si>
-  <si>
-    <t>M. HW</t>
-  </si>
-  <si>
-    <t>M. SW</t>
-  </si>
-  <si>
-    <t>Pemanfaatan IT</t>
-  </si>
-  <si>
-    <t>Pemeliharaan Gedung &amp; Perabotan</t>
-  </si>
-  <si>
-    <t>Promosi</t>
-  </si>
-  <si>
-    <t>Sewa Gedung</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
     <t>COA untuk ASET ROA TANAH</t>
   </si>
   <si>
@@ -97,78 +61,6 @@
   </si>
   <si>
     <t>Hyperion Biaya Pengelola Pendukung Proses</t>
-  </si>
-  <si>
-    <t>COA untuk Consultant</t>
-  </si>
-  <si>
-    <t>Hyperion Consultant</t>
-  </si>
-  <si>
-    <t>COA untuk Gedung</t>
-  </si>
-  <si>
-    <t>Hyperion Gedung</t>
-  </si>
-  <si>
-    <t>COA untuk HW</t>
-  </si>
-  <si>
-    <t>Hyperion HW</t>
-  </si>
-  <si>
-    <t>COA untuk Keperluan Kantor Lainnya</t>
-  </si>
-  <si>
-    <t>Hyperion Keperluan Kantor Lainnya</t>
-  </si>
-  <si>
-    <t>COA untuk Keperluan Komputer</t>
-  </si>
-  <si>
-    <t>Hyperion Keperluan Komputer</t>
-  </si>
-  <si>
-    <t>COA untuk M. HW</t>
-  </si>
-  <si>
-    <t>Hyperion M. HW</t>
-  </si>
-  <si>
-    <t>COA untuk M. SW</t>
-  </si>
-  <si>
-    <t>Hyperion M. SW</t>
-  </si>
-  <si>
-    <t>COA untuk Pemanfaatan IT</t>
-  </si>
-  <si>
-    <t>Hyperion Pemanfaatan IT</t>
-  </si>
-  <si>
-    <t>COA untuk Pemeliharaan Gedung &amp; Perabotan</t>
-  </si>
-  <si>
-    <t>Hyperion Pemeliharaan Gedung &amp; Perabotan</t>
-  </si>
-  <si>
-    <t>COA untuk Promosi</t>
-  </si>
-  <si>
-    <t>Hyperion Promosi</t>
-  </si>
-  <si>
-    <t>COA untuk Sewa Gedung</t>
-  </si>
-  <si>
-    <t>Hyperion Sewa Gedung</t>
-  </si>
-  <si>
-    <t>COA untuk SW</t>
-  </si>
-  <si>
-    <t>Hyperion SW</t>
   </si>
 </sst>
 </file>
@@ -192,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,12 +92,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,20 +394,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,171 +416,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -684,59 +427,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -745,6 +488,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086B0BF0855FEBA4DA16F0097578348E0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57ad762e78acd6d283c67dff42282626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5df9460a-bf59-494f-a2ad-2faf4bfa097c" xmlns:ns3="8906ede7-0e30-42a9-92d5-b423d28e995f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1726a201fee8d394a4eb2e9448e66d12" ns2:_="" ns3:_="">
     <xsd:import namespace="5df9460a-bf59-494f-a2ad-2faf4bfa097c"/>
@@ -947,15 +699,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -963,13 +706,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DAA1985-1F56-4FA6-AD00-86E30F3D337C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2028FC7B-C2AC-4A9A-AB5A-1D150EB3737C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2028FC7B-C2AC-4A9A-AB5A-1D150EB3737C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DAA1985-1F56-4FA6-AD00-86E30F3D337C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5df9460a-bf59-494f-a2ad-2faf4bfa097c"/>
+    <ds:schemaRef ds:uri="8906ede7-0e30-42a9-92d5-b423d28e995f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BAC659-C60E-4FE2-B294-3B2D66A675CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BAC659-C60E-4FE2-B294-3B2D66A675CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fe/public/import_template_coa.xlsx
+++ b/fe/public/import_template_coa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8180"/>
   </bookViews>
   <sheets>
     <sheet name="coa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>coa_name</t>
   </si>
@@ -61,16 +61,38 @@
   </si>
   <si>
     <t>Hyperion Biaya Pengelola Pendukung Proses</t>
+  </si>
+  <si>
+    <t>is_capex</t>
+  </si>
+  <si>
+    <t>minimum_item_origin</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_capex </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,13 +129,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,9 +440,11 @@
     <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,6 +453,12 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -425,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,9 +479,10 @@
     <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +492,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -459,8 +509,11 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -470,8 +523,14 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,6 +539,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -488,15 +550,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086B0BF0855FEBA4DA16F0097578348E0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57ad762e78acd6d283c67dff42282626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5df9460a-bf59-494f-a2ad-2faf4bfa097c" xmlns:ns3="8906ede7-0e30-42a9-92d5-b423d28e995f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1726a201fee8d394a4eb2e9448e66d12" ns2:_="" ns3:_="">
     <xsd:import namespace="5df9460a-bf59-494f-a2ad-2faf4bfa097c"/>
@@ -699,6 +752,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -706,14 +768,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2028FC7B-C2AC-4A9A-AB5A-1D150EB3737C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DAA1985-1F56-4FA6-AD00-86E30F3D337C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -732,6 +786,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2028FC7B-C2AC-4A9A-AB5A-1D150EB3737C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BAC659-C60E-4FE2-B294-3B2D66A675CF}">
   <ds:schemaRefs>
